--- a/user study materials.xlsx
+++ b/user study materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/s3928927_student_rmit_edu_au/Documents/current projects/JUN2023SEARCH/publish content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{3209F039-D8DC-424C-9D1F-B875587BA673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECB313BE-572A-456A-85B1-0A1B72968998}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{3209F039-D8DC-424C-9D1F-B875587BA673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85476238-99BA-4B80-8354-480B4726E74E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71EE5687-1E69-47FB-844C-CB36ED838D57}"/>
+    <workbookView xWindow="25490" yWindow="-830" windowWidth="22780" windowHeight="14660" xr2:uid="{71EE5687-1E69-47FB-844C-CB36ED838D57}"/>
   </bookViews>
   <sheets>
     <sheet name="backstories" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
   <si>
     <t>Topic</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>IN ID</t>
+  </si>
+  <si>
+    <t>original word count</t>
   </si>
 </sst>
 </file>
@@ -807,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -833,7 +836,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -852,31 +854,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1183,294 +1173,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E67818-97BB-45FB-B4EA-76718CADBB6D}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="100" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="112.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="13.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="112.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="G1" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="2">
         <v>41</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="G2" s="2">
+        <f>LEN(TRIM(F2)) - LEN(SUBSTITUTE(F2, " ", "")) + 1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="2">
         <v>42</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G13" si="0">LEN(TRIM(F3)) - LEN(SUBSTITUTE(F3, " ", "")) + 1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="2">
         <v>39</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="2">
         <v>41</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="G5" s="15">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="2">
         <v>40</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="G6" s="15">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="2">
         <v>40</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="2">
         <v>39</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="2">
         <v>41</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="G9" s="15">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="2">
         <v>39</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="G10" s="15">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="2">
         <v>40</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="6">
         <v>39</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="G12" s="15">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="2">
         <v>38</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21" t="s">
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="24">
+      <c r="D14" s="19">
         <f xml:space="preserve"> AVERAGE(D2:D8, D9:D13)</f>
         <v>39.916666666666664</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="19">
+        <f xml:space="preserve">  _xlfn.STDEV.S(D2:D13)</f>
+        <v>1.1645001528813148</v>
+      </c>
+      <c r="G14" s="19">
+        <f xml:space="preserve"> AVERAGE(G2:G8, G9:G13)</f>
+        <v>40.916666666666664</v>
+      </c>
+      <c r="H14" s="19">
+        <f xml:space="preserve">  _xlfn.STDEV.S(G2:G13)</f>
+        <v>6.0970683466927396</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F15">
@@ -1489,18 +1541,16 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" style="9" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="106.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="9"/>
-    <col min="6" max="6" width="18.140625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="106.109375" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
@@ -1523,17 +1573,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1546,17 +1596,17 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1569,11 +1619,11 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1592,11 +1642,11 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1615,11 +1665,11 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1638,11 +1688,11 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1661,17 +1711,17 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1684,11 +1734,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1707,11 +1757,11 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1730,11 +1780,11 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1753,11 +1803,11 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1776,11 +1826,11 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1799,7 +1849,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1807,11 +1857,11 @@
       <c r="E14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <f xml:space="preserve"> AVERAGE(F2:F7, F8:F13)</f>
         <v>147.83333333333334</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <f xml:space="preserve"> AVERAGE(G2:G7, G8:G13)</f>
         <v>11.933333333333335</v>
       </c>
